--- a/biology/Zoologie/Flipper_le_dauphin/Flipper_le_dauphin.xlsx
+++ b/biology/Zoologie/Flipper_le_dauphin/Flipper_le_dauphin.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:F8"/>
+  <dimension ref="A1:H12"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -456,6 +456,16 @@
       </c>
       <c r="F1" s="1" t="inlineStr">
         <is>
+          <t>section</t>
+        </is>
+      </c>
+      <c r="G1" s="1" t="inlineStr">
+        <is>
+          <t>sub_section</t>
+        </is>
+      </c>
+      <c r="H1" s="1" t="inlineStr">
+        <is>
           <t>article_source</t>
         </is>
       </c>
@@ -480,7 +490,9 @@
         </is>
       </c>
       <c r="E2" t="inlineStr"/>
-      <c r="F2" t="inlineStr">
+      <c r="F2" t="inlineStr"/>
+      <c r="G2" t="inlineStr"/>
+      <c r="H2" t="inlineStr">
         <is>
           <t xml:space="preserve">Flipper le dauphin (Flipper) est une série télévisée américaine en 88 épisodes de 25 minutes, créée par Ricou Browning et Jack Cowden, et diffusée entre le 19 septembre 1964 et le 15 avril 1967 sur NBC.
 En France, la série a été diffusée pour la première fois le 13 novembre 1966 sur la Deuxième chaîne de l'ORTF. Elle a été rediffusée en 1975 sur TF1 dans l'émission Les Visiteurs du mercredi, en 1989 sur FR3 dans Samdynamite, de 1991 à 1992 sur M6, en 1996 sur La Cinquième, et en 2009 sur France 5 dans l'émission Midi les Zouzous.
@@ -512,7 +524,9 @@
           <t>Synopsis</t>
         </is>
       </c>
-      <c r="F3" t="inlineStr">
+      <c r="F3" t="inlineStr"/>
+      <c r="G3" t="inlineStr"/>
+      <c r="H3" t="inlineStr">
         <is>
           <t xml:space="preserve">Les aventures de la famille Ricks : le père, Porter, responsable du parc aquatique Coral Key en Floride et ses  deux fils, Sandy et Bud. Mais le véritable héros de la série est Flipper, un grand dauphin apprivoisé par Bud, qui vient en aide aux nageurs en difficulté ou aux naufragés.
 </t>
@@ -543,7 +557,9 @@
           <t>Distribution</t>
         </is>
       </c>
-      <c r="F4" t="inlineStr">
+      <c r="F4" t="inlineStr"/>
+      <c r="G4" t="inlineStr"/>
+      <c r="H4" t="inlineStr">
         <is>
           <t xml:space="preserve">Brian Kelly (VF : Bernard Woringer puis Hubert Noël) : Porter Ricks
 Luke Halpin (VF : Bernard Pisani) : Sandy Ricks
@@ -581,9 +597,11 @@
           <t>Fiche technique</t>
         </is>
       </c>
-      <c r="F5" t="inlineStr">
-        <is>
-          <t xml:space="preserve">Titre original : Flipper
+      <c r="F5" t="inlineStr"/>
+      <c r="G5" t="inlineStr"/>
+      <c r="H5" t="inlineStr">
+        <is>
+          <t>Titre original : Flipper
 Titre français : Flipper le dauphin
 Production : NBC
 Réalisateur : Ricou Browning, Stanley Z. Cherry, Joseph Gannon, Brian Kelly
@@ -597,14 +615,7 @@
 Durée : 25 minutes
 Dates de première diffusion :
  États-Unis : 19 septembre 1964
- France : 13 novembre 1966
-Rôle de Flipper
-Flipper a d'abord été joué par deux dauphins femelles nommées Susie et Kathy. Trois autres femelles nommées Patty, Scotty et Squirt ont parfois participé au tournage. Des dauphins femelles ont été choisies parce qu'elles sont moins agressives que les mâles et que leur peau — à la différence de la peau de dauphins mâles — est généralement exempte de cicatrices et autres marques provenant des altercations avec d'autres dauphins. Ces cinq dauphins ont effectué toutes les tâches de comédien de Flipper, excepté la célèbre marche arrière, un tour qu'ils étaient incapables de réaliser complètement. Un dauphin mâle nommé Clown a été ajouté pour les scènes de la marche arrière[1]. La fameuse « voix » de Flipper était en fait le chant trafiqué d'un martin-chasseur[2].
-Les dauphins ont eu deux dresseurs, Robert Corbin et Ric O'Barry (qui joue également la doublure de Luke Halpin[3]). Ric O'Barry — qui deviendra par la suite un militant du monde maritime — explique dans ses livres, ainsi que lors de l'émission Earth Day Special présentée par Oprah Winfrey, que, lorsque la production de la série Flipper s'est terminée, il a vu le dauphin Kathy mettre volontairement fin à ses jours :
-« Elle était vraiment déprimée… Il faut comprendre que les dauphins et les baleines ne respirent pas inconsciemment comme nous. Chaque souffle qu'ils prennent est un effort conscient. Ils peuvent mettre fin à leur vie à chaque fois. Elle a nagé dans mes bras et m'a regardé droit dans les yeux, pris une grande inspiration et n'en a pas pris une autre. Je l'ai laissée aller, et elle a coulé sur le ventre au fond de la cuve[4]. »
-Les différents génériques
-Il existe trois génériques différents de la série. Composé par Henry Vars sur des paroles de William "By" Dunham (en), le premier générique est entièrement instrumental. Pour la deuxième saison, des paroles sont rajoutées, chantées par Frankie Randall dans les cinq premiers épisodes. Le troisième et dernier générique est une variante du premier. En France, la mélodie du générique avait pour titre : La Romance de Paris.
-</t>
+ France : 13 novembre 1966</t>
         </is>
       </c>
     </row>
@@ -629,12 +640,94 @@
       </c>
       <c r="E6" t="inlineStr">
         <is>
+          <t>Fiche technique</t>
+        </is>
+      </c>
+      <c r="F6" t="inlineStr">
+        <is>
+          <t>Rôle de Flipper</t>
+        </is>
+      </c>
+      <c r="G6" t="inlineStr"/>
+      <c r="H6" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Flipper a d'abord été joué par deux dauphins femelles nommées Susie et Kathy. Trois autres femelles nommées Patty, Scotty et Squirt ont parfois participé au tournage. Des dauphins femelles ont été choisies parce qu'elles sont moins agressives que les mâles et que leur peau — à la différence de la peau de dauphins mâles — est généralement exempte de cicatrices et autres marques provenant des altercations avec d'autres dauphins. Ces cinq dauphins ont effectué toutes les tâches de comédien de Flipper, excepté la célèbre marche arrière, un tour qu'ils étaient incapables de réaliser complètement. Un dauphin mâle nommé Clown a été ajouté pour les scènes de la marche arrière. La fameuse « voix » de Flipper était en fait le chant trafiqué d'un martin-chasseur.
+Les dauphins ont eu deux dresseurs, Robert Corbin et Ric O'Barry (qui joue également la doublure de Luke Halpin). Ric O'Barry — qui deviendra par la suite un militant du monde maritime — explique dans ses livres, ainsi que lors de l'émission Earth Day Special présentée par Oprah Winfrey, que, lorsque la production de la série Flipper s'est terminée, il a vu le dauphin Kathy mettre volontairement fin à ses jours :
+« Elle était vraiment déprimée… Il faut comprendre que les dauphins et les baleines ne respirent pas inconsciemment comme nous. Chaque souffle qu'ils prennent est un effort conscient. Ils peuvent mettre fin à leur vie à chaque fois. Elle a nagé dans mes bras et m'a regardé droit dans les yeux, pris une grande inspiration et n'en a pas pris une autre. Je l'ai laissée aller, et elle a coulé sur le ventre au fond de la cuve. »
+</t>
+        </is>
+      </c>
+    </row>
+    <row r="7">
+      <c r="A7" s="1" t="n">
+        <v>5</v>
+      </c>
+      <c r="B7" t="inlineStr">
+        <is>
+          <t>Flipper_le_dauphin</t>
+        </is>
+      </c>
+      <c r="C7" t="inlineStr">
+        <is>
+          <t>Portail:Zoologie/Articles liés</t>
+        </is>
+      </c>
+      <c r="D7" t="inlineStr">
+        <is>
+          <t>https://fr.wikipedia.org/wiki/Flipper_le_dauphin</t>
+        </is>
+      </c>
+      <c r="E7" t="inlineStr">
+        <is>
+          <t>Fiche technique</t>
+        </is>
+      </c>
+      <c r="F7" t="inlineStr">
+        <is>
+          <t>Les différents génériques</t>
+        </is>
+      </c>
+      <c r="G7" t="inlineStr"/>
+      <c r="H7" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Il existe trois génériques différents de la série. Composé par Henry Vars sur des paroles de William "By" Dunham (en), le premier générique est entièrement instrumental. Pour la deuxième saison, des paroles sont rajoutées, chantées par Frankie Randall dans les cinq premiers épisodes. Le troisième et dernier générique est une variante du premier. En France, la mélodie du générique avait pour titre : La Romance de Paris.
+</t>
+        </is>
+      </c>
+    </row>
+    <row r="8">
+      <c r="A8" s="1" t="n">
+        <v>6</v>
+      </c>
+      <c r="B8" t="inlineStr">
+        <is>
+          <t>Flipper_le_dauphin</t>
+        </is>
+      </c>
+      <c r="C8" t="inlineStr">
+        <is>
+          <t>Portail:Zoologie/Articles liés</t>
+        </is>
+      </c>
+      <c r="D8" t="inlineStr">
+        <is>
+          <t>https://fr.wikipedia.org/wiki/Flipper_le_dauphin</t>
+        </is>
+      </c>
+      <c r="E8" t="inlineStr">
+        <is>
           <t>Épisodes</t>
         </is>
       </c>
-      <c r="F6" t="inlineStr">
-        <is>
-          <t xml:space="preserve">Première saison (1964-1965)
+      <c r="F8" t="inlineStr">
+        <is>
+          <t>Première saison (1964-1965)</t>
+        </is>
+      </c>
+      <c r="G8" t="inlineStr"/>
+      <c r="H8" t="inlineStr">
+        <is>
+          <t xml:space="preserve">
 100 mètres sous la mer (300 Feet Below)
 Voiture rouge, voiture volée (The Red Hot Car)
 SOS dauphin (SOS Dolphin)
@@ -665,7 +758,43 @@
 Bud le marin (Sailor Bud)
 L'Appel du dauphin (The Call of the Dolphin)
 Le Monstre de Flipper (Flipper's Monster)
-Deuxième saison (1965-1966)
+</t>
+        </is>
+      </c>
+    </row>
+    <row r="9">
+      <c r="A9" s="1" t="n">
+        <v>7</v>
+      </c>
+      <c r="B9" t="inlineStr">
+        <is>
+          <t>Flipper_le_dauphin</t>
+        </is>
+      </c>
+      <c r="C9" t="inlineStr">
+        <is>
+          <t>Portail:Zoologie/Articles liés</t>
+        </is>
+      </c>
+      <c r="D9" t="inlineStr">
+        <is>
+          <t>https://fr.wikipedia.org/wiki/Flipper_le_dauphin</t>
+        </is>
+      </c>
+      <c r="E9" t="inlineStr">
+        <is>
+          <t>Épisodes</t>
+        </is>
+      </c>
+      <c r="F9" t="inlineStr">
+        <is>
+          <t>Deuxième saison (1965-1966)</t>
+        </is>
+      </c>
+      <c r="G9" t="inlineStr"/>
+      <c r="H9" t="inlineStr">
+        <is>
+          <t xml:space="preserve">
 Flipper et la sirène (Flipper and the Mermaid)
 Dauphin en poursuite [1/2] (Dolphin in Pursuit [1/2])
 Dauphin en poursuite [2/2] (Dolphin in Pursuit [2/2])
@@ -696,7 +825,43 @@
 Eaux profondes (Deep Waters)
 Un amour de dauphin [1/2] (Dolphin Love [1/2])
 Un amour de dauphin [2/2] (Dolphin Love [2/2])
-Troisième saison (1966-1967)
+</t>
+        </is>
+      </c>
+    </row>
+    <row r="10">
+      <c r="A10" s="1" t="n">
+        <v>8</v>
+      </c>
+      <c r="B10" t="inlineStr">
+        <is>
+          <t>Flipper_le_dauphin</t>
+        </is>
+      </c>
+      <c r="C10" t="inlineStr">
+        <is>
+          <t>Portail:Zoologie/Articles liés</t>
+        </is>
+      </c>
+      <c r="D10" t="inlineStr">
+        <is>
+          <t>https://fr.wikipedia.org/wiki/Flipper_le_dauphin</t>
+        </is>
+      </c>
+      <c r="E10" t="inlineStr">
+        <is>
+          <t>Épisodes</t>
+        </is>
+      </c>
+      <c r="F10" t="inlineStr">
+        <is>
+          <t>Troisième saison (1966-1967)</t>
+        </is>
+      </c>
+      <c r="G10" t="inlineStr"/>
+      <c r="H10" t="inlineStr">
+        <is>
+          <t xml:space="preserve">
 Bud, agent secret (Agent Bud)
 Désastre aux Everglades [1/2] (Disaster in the Everglades [1/2])
 Désastre aux Everglades [2/2] (Disaster in the Everglades [2/2])
@@ -729,62 +894,66 @@
         </is>
       </c>
     </row>
-    <row r="7">
-      <c r="A7" s="1" t="n">
-        <v>5</v>
-      </c>
-      <c r="B7" t="inlineStr">
-        <is>
-          <t>Flipper_le_dauphin</t>
-        </is>
-      </c>
-      <c r="C7" t="inlineStr">
-        <is>
-          <t>Portail:Zoologie/Articles liés</t>
-        </is>
-      </c>
-      <c r="D7" t="inlineStr">
-        <is>
-          <t>https://fr.wikipedia.org/wiki/Flipper_le_dauphin</t>
-        </is>
-      </c>
-      <c r="E7" t="inlineStr">
+    <row r="11">
+      <c r="A11" s="1" t="n">
+        <v>9</v>
+      </c>
+      <c r="B11" t="inlineStr">
+        <is>
+          <t>Flipper_le_dauphin</t>
+        </is>
+      </c>
+      <c r="C11" t="inlineStr">
+        <is>
+          <t>Portail:Zoologie/Articles liés</t>
+        </is>
+      </c>
+      <c r="D11" t="inlineStr">
+        <is>
+          <t>https://fr.wikipedia.org/wiki/Flipper_le_dauphin</t>
+        </is>
+      </c>
+      <c r="E11" t="inlineStr">
         <is>
           <t>Autour de la série</t>
         </is>
       </c>
-      <c r="F7" t="inlineStr">
+      <c r="F11" t="inlineStr"/>
+      <c r="G11" t="inlineStr"/>
+      <c r="H11" t="inlineStr">
         <is>
           <t>Flipper le dauphin a connu le triomphe dans le monde entier. La série a été créée à la suite de deux films à succès : Flipper (1963) et Flipper's New Adventure (1964), dans lesquels le gentil dauphin apparaissait.
-Pour les films, une jeune dauphine nommée Mitzi avait été choisie pour le rôle. À la télévision, le rôle a notamment été tenu par les célèbres Suzy et Cathy. Tous les dauphins utilisés étaient des femelles[5].</t>
-        </is>
-      </c>
-    </row>
-    <row r="8">
-      <c r="A8" s="1" t="n">
-        <v>6</v>
-      </c>
-      <c r="B8" t="inlineStr">
-        <is>
-          <t>Flipper_le_dauphin</t>
-        </is>
-      </c>
-      <c r="C8" t="inlineStr">
-        <is>
-          <t>Portail:Zoologie/Articles liés</t>
-        </is>
-      </c>
-      <c r="D8" t="inlineStr">
-        <is>
-          <t>https://fr.wikipedia.org/wiki/Flipper_le_dauphin</t>
-        </is>
-      </c>
-      <c r="E8" t="inlineStr">
+Pour les films, une jeune dauphine nommée Mitzi avait été choisie pour le rôle. À la télévision, le rôle a notamment été tenu par les célèbres Suzy et Cathy. Tous les dauphins utilisés étaient des femelles.</t>
+        </is>
+      </c>
+    </row>
+    <row r="12">
+      <c r="A12" s="1" t="n">
+        <v>10</v>
+      </c>
+      <c r="B12" t="inlineStr">
+        <is>
+          <t>Flipper_le_dauphin</t>
+        </is>
+      </c>
+      <c r="C12" t="inlineStr">
+        <is>
+          <t>Portail:Zoologie/Articles liés</t>
+        </is>
+      </c>
+      <c r="D12" t="inlineStr">
+        <is>
+          <t>https://fr.wikipedia.org/wiki/Flipper_le_dauphin</t>
+        </is>
+      </c>
+      <c r="E12" t="inlineStr">
         <is>
           <t>Produits dérivés (France)</t>
         </is>
       </c>
-      <c r="F8" t="inlineStr">
+      <c r="F12" t="inlineStr"/>
+      <c r="G12" t="inlineStr"/>
+      <c r="H12" t="inlineStr">
         <is>
           <t>DVD : Flipper : L'intégrale de la saison 1 en coffret de 4 DVD, avec un nouveau doublage en français - Éditeur : 20th Century Fox ; Distributeur : Fox Pathé Europa ; 2007.</t>
         </is>
